--- a/Reports/jobspersite.xlsx
+++ b/Reports/jobspersite.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam\OneDrive\Documents\GitHub\PythonScrapJob\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranc\OneDrive\Documents\GitHub\PythonScrapJob\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12315"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -397,10 +396,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
